--- a/Win32/Binaries/Table/towerattr.xlsx
+++ b/Win32/Binaries/Table/towerattr.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="注释" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,38 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/stage/deng1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应驿站表中的属性ID决定加哪条属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性图标（驿站中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此表中的属性值去掉了，直接读取mysteryshop表中所加属性的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力上限永久</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值上限永久</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,8 +148,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -422,18 +457,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -441,16 +476,13 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -458,47 +490,38 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>10001</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>20</v>
+      <c r="C3" t="s">
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>10002</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>50</v>
+      <c r="C4" t="s">
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -509,15 +532,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -525,7 +548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -536,7 +559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>10001</v>
       </c>
@@ -547,7 +570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>10002</v>
       </c>
@@ -558,7 +581,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>1</v>
       </c>
@@ -566,7 +589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>2</v>
       </c>
@@ -574,14 +597,89 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>10001</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>10002</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
